--- a/config/units.xlsx
+++ b/config/units.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8418E49A-8883-4B91-A567-F58F6C3DC79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC01701-9842-4073-8D53-FAA1F94300C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="exiobase" sheetId="1" r:id="rId1"/>
-    <sheet name="german" sheetId="2" r:id="rId2"/>
-    <sheet name="english" sheetId="4" r:id="rId3"/>
+    <sheet name="Exiobase" sheetId="1" r:id="rId1"/>
+    <sheet name="Deutsch" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -3458,7 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5639,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB4844A-75F3-4031-89B5-0E9F2E8C0D31}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/units.xlsx
+++ b/config/units.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC01701-9842-4073-8D53-FAA1F94300C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191DE7F-AEFB-45F0-BD04-25D70200450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exiobase" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="296">
   <si>
     <t>impact</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>Landnutzung</t>
+  </si>
+  <si>
+    <t>Fälle</t>
+  </si>
+  <si>
+    <t>Kilotonnen</t>
   </si>
 </sst>
 </file>
@@ -1277,9 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3458,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5639,7 +5643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB4844A-75F3-4031-89B5-0E9F2E8C0D31}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/config/units.xlsx
+++ b/config/units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191DE7F-AEFB-45F0-BD04-25D70200450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD963403-C09E-4E77-A450-FC73F4810A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="297">
   <si>
     <t>impact</t>
   </si>
@@ -910,6 +910,9 @@
   </si>
   <si>
     <t>Kilotonnen</t>
+  </si>
+  <si>
+    <t>Mio. ha</t>
   </si>
 </sst>
 </file>
@@ -3462,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -5625,17 +5628,18 @@
         <v>163</v>
       </c>
       <c r="C127" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="D127" s="2">
         <v>2</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/units.xlsx
+++ b/config/units.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD963403-C09E-4E77-A450-FC73F4810A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C4A57A-57B4-4008-A375-E1593F02C062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="299">
   <si>
     <t>impact</t>
   </si>
@@ -534,21 +534,12 @@
     <t>Wertschöpfung</t>
   </si>
   <si>
-    <t>Milliarden Euro</t>
-  </si>
-  <si>
     <t>Beschäftigung</t>
   </si>
   <si>
-    <t>Millionen Personen</t>
-  </si>
-  <si>
     <t>Arbeitszeit</t>
   </si>
   <si>
-    <t>Millionen Stunden</t>
-  </si>
-  <si>
     <t>Treibhausgasemissionen</t>
   </si>
   <si>
@@ -642,9 +633,6 @@
     <t>Wasserverbrauch</t>
   </si>
   <si>
-    <t>Mm3 Wasser</t>
-  </si>
-  <si>
     <t>Blaue Wasserentnahme - Industrie</t>
   </si>
   <si>
@@ -912,7 +900,25 @@
     <t>Kilotonnen</t>
   </si>
   <si>
-    <t>Mio. ha</t>
+    <t>Mio. Personen</t>
+  </si>
+  <si>
+    <t>Mrd. Euro</t>
+  </si>
+  <si>
+    <t>Mio. Stunden</t>
+  </si>
+  <si>
+    <t>Mio. m³ Wasser</t>
+  </si>
+  <si>
+    <t>Mio. Hektar</t>
+  </si>
+  <si>
+    <t>m³</t>
+  </si>
+  <si>
+    <t>Megatonnen</t>
   </si>
 </sst>
 </file>
@@ -3465,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,12 +3515,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -3526,12 +3532,12 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -3543,12 +3549,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -3560,12 +3566,12 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -3577,12 +3583,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -3599,7 +3605,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -3616,7 +3622,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -3633,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -3667,7 +3673,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -3684,7 +3690,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -3718,7 +3724,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -3735,7 +3741,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -3752,7 +3758,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -3786,7 +3792,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
@@ -3803,7 +3809,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
@@ -3820,7 +3826,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -3837,7 +3843,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -3854,7 +3860,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
@@ -3871,7 +3877,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>20</v>
@@ -3888,7 +3894,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -3905,7 +3911,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -3922,7 +3928,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
@@ -3934,12 +3940,12 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -3951,12 +3957,12 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
@@ -3968,12 +3974,12 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
@@ -3985,12 +3991,12 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
@@ -4002,12 +4008,12 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
@@ -4019,12 +4025,12 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
@@ -4036,12 +4042,12 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
@@ -4053,12 +4059,12 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>42</v>
@@ -4070,12 +4076,12 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>42</v>
@@ -4087,12 +4093,12 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>42</v>
@@ -4104,12 +4110,12 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>42</v>
@@ -4121,12 +4127,12 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>54</v>
@@ -4143,7 +4149,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
@@ -4160,7 +4166,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>54</v>
@@ -4177,7 +4183,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>58</v>
@@ -4194,7 +4200,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>58</v>
@@ -4211,7 +4217,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>58</v>
@@ -4228,7 +4234,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
@@ -4245,7 +4251,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>54</v>
@@ -4262,92 +4268,92 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>69</v>
@@ -4364,7 +4370,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>71</v>
@@ -4381,7 +4387,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>71</v>
@@ -4398,7 +4404,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>71</v>
@@ -4415,7 +4421,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>71</v>
@@ -4432,7 +4438,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>71</v>
@@ -4449,7 +4455,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>71</v>
@@ -4466,7 +4472,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -4483,7 +4489,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
@@ -4500,7 +4506,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
@@ -4534,7 +4540,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>71</v>
@@ -4551,7 +4557,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>71</v>
@@ -4568,7 +4574,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>71</v>
@@ -4585,7 +4591,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>71</v>
@@ -4602,7 +4608,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>71</v>
@@ -4619,7 +4625,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>71</v>
@@ -4636,7 +4642,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>71</v>
@@ -4653,7 +4659,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>71</v>
@@ -4670,7 +4676,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>71</v>
@@ -4687,7 +4693,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>71</v>
@@ -4704,7 +4710,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -4721,7 +4727,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
@@ -4738,7 +4744,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>71</v>
@@ -4755,7 +4761,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>71</v>
@@ -4772,7 +4778,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>96</v>
@@ -4789,7 +4795,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>96</v>
@@ -4806,7 +4812,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>99</v>
@@ -4823,7 +4829,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>99</v>
@@ -4840,7 +4846,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>99</v>
@@ -4857,7 +4863,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>103</v>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>103</v>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>106</v>
@@ -4908,7 +4914,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>108</v>
@@ -4925,7 +4931,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>110</v>
@@ -4937,12 +4943,12 @@
         <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>112</v>
@@ -4959,7 +4965,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>20</v>
@@ -4976,7 +4982,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>115</v>
@@ -4993,7 +4999,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>117</v>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>119</v>
@@ -5027,7 +5033,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>20</v>
@@ -5044,7 +5050,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>20</v>
@@ -5061,7 +5067,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>123</v>
@@ -5078,7 +5084,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>20</v>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>126</v>
@@ -5112,7 +5118,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>20</v>
@@ -5129,7 +5135,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>129</v>
@@ -5146,7 +5152,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>115</v>
@@ -5163,7 +5169,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>129</v>
@@ -5180,7 +5186,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>133</v>
@@ -5197,7 +5203,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>135</v>
@@ -5214,7 +5220,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>137</v>
@@ -5231,53 +5237,53 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D104" s="2">
         <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C105" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D105" s="2">
         <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D106" s="2">
         <v>2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5288,13 +5294,13 @@
         <v>140</v>
       </c>
       <c r="C107" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D107" s="2">
         <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5305,13 +5311,13 @@
         <v>140</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D108" s="2">
         <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5322,13 +5328,13 @@
         <v>140</v>
       </c>
       <c r="C109" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D109" s="2">
         <v>2</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,18 +5345,18 @@
         <v>140</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="D110" s="2">
         <v>2</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>40</v>
@@ -5367,7 +5373,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>40</v>
@@ -5384,7 +5390,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>40</v>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>40</v>
@@ -5435,7 +5441,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>40</v>
@@ -5452,7 +5458,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>40</v>
@@ -5469,7 +5475,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>40</v>
@@ -5486,7 +5492,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>40</v>
@@ -5503,7 +5509,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>40</v>
@@ -5537,7 +5543,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>40</v>
@@ -5554,7 +5560,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>40</v>
@@ -5571,7 +5577,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>40</v>
@@ -5588,7 +5594,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>40</v>
@@ -5605,7 +5611,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>40</v>
@@ -5622,7 +5628,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>163</v>
